--- a/sim1.xlsx
+++ b/sim1.xlsx
@@ -414,19 +414,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>23.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E2">
-        <v>-46.2</v>
+        <v>-17.6</v>
       </c>
       <c r="F2">
-        <v>-23.1</v>
+        <v>-8.800000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -434,19 +434,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>33.59232835439427</v>
+        <v>21.80660127786448</v>
       </c>
       <c r="E3">
-        <v>-65.22042270846075</v>
+        <v>-42.86492293655647</v>
       </c>
       <c r="F3">
-        <v>-31.62809435406648</v>
+        <v>-21.05832165869198</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -454,19 +454,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>50.45406547061058</v>
+        <v>46.07735482090338</v>
       </c>
       <c r="E4">
-        <v>-96.21416101047977</v>
+        <v>-89.60043481999058</v>
       </c>
       <c r="F4">
-        <v>-45.76009553986919</v>
+        <v>-43.5230799990872</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -474,19 +474,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>60.34523004009266</v>
+        <v>54.96470691843208</v>
       </c>
       <c r="E5">
-        <v>-112.0090196842606</v>
+        <v>-103.6218326359714</v>
       </c>
       <c r="F5">
-        <v>-51.66378964416791</v>
+        <v>-48.65712571753929</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -494,19 +494,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>18</v>
       </c>
       <c r="D6">
-        <v>88.71901522455542</v>
+        <v>73.55674054563914</v>
       </c>
       <c r="E6">
-        <v>-164.1852203011697</v>
+        <v>-136.5389482327285</v>
       </c>
       <c r="F6">
-        <v>-75.4662050766143</v>
+        <v>-62.98220768708933</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -514,19 +514,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>111.5192261139247</v>
+        <v>91.74017467905047</v>
       </c>
       <c r="E7">
-        <v>-203.0964204306993</v>
+        <v>-167.333139800588</v>
       </c>
       <c r="F7">
-        <v>-91.57719431677455</v>
+        <v>-75.59296512153749</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -534,19 +534,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>128.8683538612003</v>
+        <v>121.073989161844</v>
       </c>
       <c r="E8">
-        <v>-229.5981199478373</v>
+        <v>-219.2413211107223</v>
       </c>
       <c r="F8">
-        <v>-100.729766086637</v>
+        <v>-98.16733194887829</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -557,16 +557,16 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>140.3361976156931</v>
+        <v>126.113130663236</v>
       </c>
       <c r="E9">
-        <v>-243.390644961329</v>
+        <v>-220.5017873066406</v>
       </c>
       <c r="F9">
-        <v>-103.0544473456359</v>
+        <v>-94.38865664340452</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -574,19 +574,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>158.1520111056667</v>
+        <v>133.2415263092839</v>
       </c>
       <c r="E10">
-        <v>-269.4936484526738</v>
+        <v>-226.0809622373184</v>
       </c>
       <c r="F10">
-        <v>-111.3416373470071</v>
+        <v>-92.8394359280345</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -597,16 +597,16 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>165.6762841907806</v>
+        <v>143.5132602952383</v>
       </c>
       <c r="E11">
-        <v>-274.1131905491316</v>
+        <v>-237.9003193556808</v>
       </c>
       <c r="F11">
-        <v>-108.436906358351</v>
+        <v>-94.38705906044248</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -614,19 +614,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>181.8351953668422</v>
+        <v>152.4592510735791</v>
       </c>
       <c r="E12">
-        <v>-296.0348044480154</v>
+        <v>-246.7574104984919</v>
       </c>
       <c r="F12">
-        <v>-114.1996090811732</v>
+        <v>-94.29815942491282</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -637,16 +637,16 @@
         <v>1.5</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>187.7389800914776</v>
+        <v>178.8086346718327</v>
       </c>
       <c r="E13">
-        <v>-296.7426273735875</v>
+        <v>-290.2432811296534</v>
       </c>
       <c r="F13">
-        <v>-109.0036472821099</v>
+        <v>-111.4346464578207</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -657,16 +657,16 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>197.9130165863961</v>
+        <v>184.7789345067954</v>
       </c>
       <c r="E14">
-        <v>-306.2048006646257</v>
+        <v>-291.3246168552864</v>
       </c>
       <c r="F14">
-        <v>-108.2917840782295</v>
+        <v>-106.545682348491</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -674,19 +674,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>208.4134569839195</v>
+        <v>199.4180243009799</v>
       </c>
       <c r="E15">
-        <v>-316.1567298719715</v>
+        <v>-309.9362139797801</v>
       </c>
       <c r="F15">
-        <v>-107.743272888052</v>
+        <v>-110.5181896788003</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -694,19 +694,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>222.5331278638587</v>
+        <v>209.8853889520482</v>
       </c>
       <c r="E16">
-        <v>-333.1668291599836</v>
+        <v>-319.6474930923384</v>
       </c>
       <c r="F16">
-        <v>-110.633701296125</v>
+        <v>-109.7621041402903</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -717,16 +717,16 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>236.3424889363939</v>
+        <v>220.6727109954298</v>
       </c>
       <c r="E17">
-        <v>-349.0798958600004</v>
+        <v>-329.8324625357284</v>
       </c>
       <c r="F17">
-        <v>-112.7374069236064</v>
+        <v>-109.1597515402986</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -734,19 +734,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>239.9483599197319</v>
+        <v>225.7229586867143</v>
       </c>
       <c r="E18">
-        <v>-344.1666809111401</v>
+        <v>-328.3605725923533</v>
       </c>
       <c r="F18">
-        <v>-104.2183209914081</v>
+        <v>-102.637613905639</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -757,16 +757,16 @@
         <v>1.5</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>251.174984216665</v>
+        <v>230.6622164405032</v>
       </c>
       <c r="E19">
-        <v>-354.9703340075195</v>
+        <v>-326.9836092691281</v>
       </c>
       <c r="F19">
-        <v>-103.7953497908545</v>
+        <v>-96.32139282862494</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -777,16 +777,16 @@
         <v>1.5</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>270.4048795598569</v>
+        <v>251.9929234968056</v>
       </c>
       <c r="E20">
-        <v>-381.5772269430409</v>
+        <v>-358.6954504621186</v>
       </c>
       <c r="F20">
-        <v>-111.172347383184</v>
+        <v>-106.702526965313</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -794,19 +794,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>280.9621570409837</v>
+        <v>258.554842884138</v>
       </c>
       <c r="E21">
-        <v>-389.9681611342096</v>
+        <v>-359.7620994063746</v>
       </c>
       <c r="F21">
-        <v>-109.0060040932259</v>
+        <v>-101.2072565222366</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -814,19 +814,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>306.1374158886923</v>
+        <v>259.4725501323492</v>
       </c>
       <c r="E22">
-        <v>-427.5179386809885</v>
+        <v>-349.7599569443026</v>
       </c>
       <c r="F22">
-        <v>-121.3805227922962</v>
+        <v>-90.28740681195342</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -840,13 +840,13 @@
         <v>6</v>
       </c>
       <c r="D23">
-        <v>306.0093948624717</v>
+        <v>260.3700888113447</v>
       </c>
       <c r="E23">
-        <v>-413.1460178623836</v>
+        <v>-340.402882805753</v>
       </c>
       <c r="F23">
-        <v>-107.1366229999119</v>
+        <v>-80.03279399440828</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -857,16 +857,16 @@
         <v>1.5</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>328.9841873706688</v>
+        <v>274.4479021683419</v>
       </c>
       <c r="E24">
-        <v>-445.9009855482573</v>
+        <v>-358.0492745896811</v>
       </c>
       <c r="F24">
-        <v>-116.9167981775885</v>
+        <v>-83.60137242133925</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -874,19 +874,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D25">
-        <v>340.4540599342736</v>
+        <v>288.2163256260544</v>
       </c>
       <c r="E25">
-        <v>-454.5434866128771</v>
+        <v>-374.5575973641505</v>
       </c>
       <c r="F25">
-        <v>-114.0894266786036</v>
+        <v>-86.34127173809611</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -894,19 +894,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D26">
-        <v>341.7718576459626</v>
+        <v>301.6821586857507</v>
       </c>
       <c r="E26">
-        <v>-442.8286067269722</v>
+        <v>-390.0012486308231</v>
       </c>
       <c r="F26">
-        <v>-101.0567490810096</v>
+        <v>-88.31908994507239</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -914,19 +914,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>345.8106939493023</v>
+        <v>313.7520514151929</v>
       </c>
       <c r="E27">
-        <v>-437.3692547649018</v>
+        <v>-402.2488922651876</v>
       </c>
       <c r="F27">
-        <v>-91.55856081559944</v>
+        <v>-88.49684084999467</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -937,16 +937,16 @@
         <v>1.5</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>353.0607682321897</v>
+        <v>328.306682573023</v>
       </c>
       <c r="E28">
-        <v>-438.8619928706387</v>
+        <v>-419.2066484353136</v>
       </c>
       <c r="F28">
-        <v>-85.80122463844901</v>
+        <v>-90.89996586229063</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -954,19 +954,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>355.2015067080659</v>
+        <v>339.7914447459579</v>
       </c>
       <c r="E29">
-        <v>-430.3584597953786</v>
+        <v>-429.5707477829296</v>
       </c>
       <c r="F29">
-        <v>-75.15695308731267</v>
+        <v>-89.77930303697167</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -977,16 +977,16 @@
         <v>1.5</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>357.2951979014807</v>
+        <v>355.4238048361342</v>
       </c>
       <c r="E30">
-        <v>-422.4033452060253</v>
+        <v>-448.0664351161859</v>
       </c>
       <c r="F30">
-        <v>-65.10814730454462</v>
+        <v>-92.64263028005172</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -997,16 +997,16 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D31">
-        <v>361.54287577656</v>
+        <v>366.312610555242</v>
       </c>
       <c r="E31">
-        <v>-419.3612799409584</v>
+        <v>-456.569279809408</v>
       </c>
       <c r="F31">
-        <v>-57.81840416439843</v>
+        <v>-90.25666925416607</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>373.3972018933343</v>
+        <v>378.0621116025706</v>
       </c>
       <c r="E32">
-        <v>-431.9154066365663</v>
+        <v>-466.7237504125564</v>
       </c>
       <c r="F32">
-        <v>-58.51820474323199</v>
+        <v>-88.66163880998585</v>
       </c>
     </row>
   </sheetData>
